--- a/Fuentes_datos/Datos_Grafico2_Juan.xlsx
+++ b/Fuentes_datos/Datos_Grafico2_Juan.xlsx
@@ -1,63 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krossbot\Desktop\Visualización de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krossbot\Desktop\New folder\Grupo-5-Visualizaci-n-de-Datos\Fuentes_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D35BE-5207-4CDF-88D1-DF71F5FFA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945BA73-F00E-4F2E-95B9-24EF06DB620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{C6E9C39C-275A-4A23-875C-E54F43A891BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+  <si>
+    <t>Red Social</t>
+  </si>
+  <si>
+    <t>Rango Etario</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
   <si>
     <t>Facebook</t>
   </si>
   <si>
+    <t>Youtube</t>
+  </si>
+  <si>
     <t>Instagram</t>
   </si>
   <si>
-    <t>Youtube</t>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>WeChat</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
   </si>
   <si>
     <t>TikTok</t>
   </si>
   <si>
-    <t>Snapchat</t>
-  </si>
-  <si>
-    <t>Red Social</t>
-  </si>
-  <si>
-    <t>Rango Etario</t>
-  </si>
-  <si>
-    <t>Porcentaje</t>
+    <t>X(Twitter)</t>
   </si>
   <si>
     <t>18-24</t>
@@ -78,18 +79,12 @@
     <t>65+</t>
   </si>
   <si>
+    <t>35-54</t>
+  </si>
+  <si>
     <t>55+</t>
   </si>
   <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>35-54</t>
-  </si>
-  <si>
-    <t>WhatsApp</t>
-  </si>
-  <si>
     <t>15-25</t>
   </si>
   <si>
@@ -105,15 +100,12 @@
     <t>56+</t>
   </si>
   <si>
-    <t>WeChat</t>
+    <t>24 o menos</t>
   </si>
   <si>
     <t>25-30</t>
   </si>
   <si>
-    <t>24 o menos</t>
-  </si>
-  <si>
     <t>31-35</t>
   </si>
   <si>
@@ -123,9 +115,6 @@
     <t>41+</t>
   </si>
   <si>
-    <t>Telegram</t>
-  </si>
-  <si>
     <t>17 o menos</t>
   </si>
   <si>
@@ -139,120 +128,6 @@
   </si>
   <si>
     <t>50+</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>21.6</t>
-  </si>
-  <si>
-    <t>23.8</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>24.2</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>31.7</t>
-  </si>
-  <si>
-    <t>30.6</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>50.6</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>X(Twitter)</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>36.6</t>
-  </si>
-  <si>
-    <t>19.7</t>
   </si>
 </sst>
 </file>
@@ -268,6 +143,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -283,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -291,21 +167,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,44 +223,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -415,9 +310,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -473,740 +368,759 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6454CFCC-9DCF-4C8E-9AA6-56D87290A7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11.7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>31.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30.6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50.6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>33.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>18.8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
+        <v>29.4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="2">
+        <v>23.8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>21.6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>38.1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>23.6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13.9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2.4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C50" s="2">
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>36.6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="C52" s="2">
+        <v>19.7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="C53" s="2">
         <v>7</v>
       </c>
     </row>
